--- a/Alex Bd/Project/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
+++ b/Alex Bd/Project/PERSONAS_DESAP_Y_NO_LOC_XEDO_Df.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2849,7 +2849,7 @@
           <t>Aguascalientes</t>
         </is>
       </c>
-      <c r="C134" s="3" t="n">
+      <c r="C134" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D134" t="n">
@@ -2867,7 +2867,7 @@
           <t>Baja California</t>
         </is>
       </c>
-      <c r="C135" s="3" t="n">
+      <c r="C135" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D135" t="n">
@@ -2885,7 +2885,7 @@
           <t>Baja California Sur</t>
         </is>
       </c>
-      <c r="C136" s="3" t="n">
+      <c r="C136" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D136" t="n">
@@ -2903,7 +2903,7 @@
           <t>Campeche</t>
         </is>
       </c>
-      <c r="C137" s="3" t="n">
+      <c r="C137" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D137" t="n">
@@ -2921,7 +2921,7 @@
           <t>Coahuila</t>
         </is>
       </c>
-      <c r="C138" s="3" t="n">
+      <c r="C138" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D138" t="n">
@@ -2939,7 +2939,7 @@
           <t>Colima</t>
         </is>
       </c>
-      <c r="C139" s="3" t="n">
+      <c r="C139" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D139" t="n">
@@ -2957,7 +2957,7 @@
           <t>Chiapas</t>
         </is>
       </c>
-      <c r="C140" s="3" t="n">
+      <c r="C140" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D140" t="n">
@@ -2975,7 +2975,7 @@
           <t>Chihuahua</t>
         </is>
       </c>
-      <c r="C141" s="3" t="n">
+      <c r="C141" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D141" t="n">
@@ -2993,7 +2993,7 @@
           <t>Ciudad de México</t>
         </is>
       </c>
-      <c r="C142" s="3" t="n">
+      <c r="C142" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D142" t="n">
@@ -3011,7 +3011,7 @@
           <t>Durango</t>
         </is>
       </c>
-      <c r="C143" s="3" t="n">
+      <c r="C143" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D143" t="n">
@@ -3029,7 +3029,7 @@
           <t>Guanajuato</t>
         </is>
       </c>
-      <c r="C144" s="3" t="n">
+      <c r="C144" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D144" t="n">
@@ -3047,7 +3047,7 @@
           <t>Guerrero</t>
         </is>
       </c>
-      <c r="C145" s="3" t="n">
+      <c r="C145" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D145" t="n">
@@ -3065,7 +3065,7 @@
           <t>Hidalgo</t>
         </is>
       </c>
-      <c r="C146" s="3" t="n">
+      <c r="C146" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D146" t="n">
@@ -3083,7 +3083,7 @@
           <t>Jalisco</t>
         </is>
       </c>
-      <c r="C147" s="3" t="n">
+      <c r="C147" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D147" t="n">
@@ -3101,7 +3101,7 @@
           <t>Estado de México</t>
         </is>
       </c>
-      <c r="C148" s="3" t="n">
+      <c r="C148" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D148" t="n">
@@ -3119,7 +3119,7 @@
           <t>Michoacán</t>
         </is>
       </c>
-      <c r="C149" s="3" t="n">
+      <c r="C149" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D149" t="n">
@@ -3137,7 +3137,7 @@
           <t>Morelos</t>
         </is>
       </c>
-      <c r="C150" s="3" t="n">
+      <c r="C150" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D150" t="n">
@@ -3155,7 +3155,7 @@
           <t>Nayarit</t>
         </is>
       </c>
-      <c r="C151" s="3" t="n">
+      <c r="C151" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D151" t="n">
@@ -3173,7 +3173,7 @@
           <t>Nuevo León</t>
         </is>
       </c>
-      <c r="C152" s="3" t="n">
+      <c r="C152" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D152" t="n">
@@ -3191,7 +3191,7 @@
           <t>Oaxaca</t>
         </is>
       </c>
-      <c r="C153" s="3" t="n">
+      <c r="C153" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D153" t="n">
@@ -3209,7 +3209,7 @@
           <t>Puebla</t>
         </is>
       </c>
-      <c r="C154" s="3" t="n">
+      <c r="C154" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D154" t="n">
@@ -3227,7 +3227,7 @@
           <t>Querétaro</t>
         </is>
       </c>
-      <c r="C155" s="3" t="n">
+      <c r="C155" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D155" t="n">
@@ -3245,7 +3245,7 @@
           <t>Quintana Roo</t>
         </is>
       </c>
-      <c r="C156" s="3" t="n">
+      <c r="C156" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D156" t="n">
@@ -3263,7 +3263,7 @@
           <t>San Luis Potosí</t>
         </is>
       </c>
-      <c r="C157" s="3" t="n">
+      <c r="C157" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D157" t="n">
@@ -3281,7 +3281,7 @@
           <t>Sinaloa</t>
         </is>
       </c>
-      <c r="C158" s="3" t="n">
+      <c r="C158" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D158" t="n">
@@ -3299,7 +3299,7 @@
           <t>Sonora</t>
         </is>
       </c>
-      <c r="C159" s="3" t="n">
+      <c r="C159" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D159" t="n">
@@ -3317,7 +3317,7 @@
           <t>Tabasco</t>
         </is>
       </c>
-      <c r="C160" s="3" t="n">
+      <c r="C160" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D160" t="n">
@@ -3335,7 +3335,7 @@
           <t>Tamaulipas</t>
         </is>
       </c>
-      <c r="C161" s="3" t="n">
+      <c r="C161" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D161" t="n">
@@ -3353,7 +3353,7 @@
           <t>Tlaxcala</t>
         </is>
       </c>
-      <c r="C162" s="3" t="n">
+      <c r="C162" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D162" t="n">
@@ -3371,7 +3371,7 @@
           <t>Veracruz</t>
         </is>
       </c>
-      <c r="C163" s="3" t="n">
+      <c r="C163" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D163" t="n">
@@ -3389,7 +3389,7 @@
           <t>Yucatán</t>
         </is>
       </c>
-      <c r="C164" s="3" t="n">
+      <c r="C164" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D164" t="n">
@@ -3407,7 +3407,7 @@
           <t>Zacatecas</t>
         </is>
       </c>
-      <c r="C165" s="3" t="n">
+      <c r="C165" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D165" t="n">
@@ -3425,11 +3425,7139 @@
           <t>México</t>
         </is>
       </c>
-      <c r="C166" s="3" t="n">
+      <c r="C166" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="D166" t="n">
         <v>965</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D167" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D169" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D170" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D171" t="n">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D176" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D179" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D180" t="n">
+        <v>14981</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11839</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D186" t="n">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D188" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D189" t="n">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D190" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D193" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D194" t="n">
+        <v>12691</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D195" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D196" t="n">
+        <v>7346</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D197" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="D199" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D200" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D202" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D203" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D209" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D212" t="n">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D213" t="n">
+        <v>14981</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11840</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D218" t="n">
+        <v>6324</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D219" t="n">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D221" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D222" t="n">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D223" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D225" t="n">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D226" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D227" t="n">
+        <v>12691</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D228" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D229" t="n">
+        <v>7346</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D230" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D231" t="n">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D232" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D233" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D235" t="n">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D236" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D237" t="n">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5573</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D242" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D245" t="n">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D246" t="n">
+        <v>14985</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D247" t="n">
+        <v>11854</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D248" t="n">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D251" t="n">
+        <v>6316</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D252" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D254" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D255" t="n">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D256" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C257" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D257" t="n">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D258" t="n">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D259" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D260" t="n">
+        <v>12693</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C261" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D261" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D262" t="n">
+        <v>7391</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D263" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="D265" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D266" t="n">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D268" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D269" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C273" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D274" t="n">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D275" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C277" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D277" t="n">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D278" t="n">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C279" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D279" t="n">
+        <v>14985</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D280" t="n">
+        <v>11857</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C281" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D281" t="n">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C283" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C284" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D284" t="n">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C285" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D285" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C286" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D287" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C288" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D288" t="n">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C289" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D289" t="n">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D290" t="n">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C291" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D291" t="n">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C292" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D292" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C293" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D293" t="n">
+        <v>12693</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C294" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D294" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C295" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D295" t="n">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D296" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C297" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C298" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="D298" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C299" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D299" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C300" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C301" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D301" t="n">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C302" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D302" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C303" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C304" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C305" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C306" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D306" t="n">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C307" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D307" t="n">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C308" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D308" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C309" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C310" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D310" t="n">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C311" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D311" t="n">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C312" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D312" t="n">
+        <v>14988</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C313" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D313" t="n">
+        <v>11811</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C314" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D314" t="n">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C315" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C317" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D317" t="n">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D318" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C319" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D320" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C321" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D321" t="n">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D322" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C323" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D323" t="n">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C324" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D324" t="n">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C325" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D325" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C326" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D326" t="n">
+        <v>12707</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C327" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D327" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D328" t="n">
+        <v>7415</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C329" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D329" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D330" t="n">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C331" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="D331" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D332" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C333" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C334" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D334" t="n">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C335" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D335" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C336" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C337" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C338" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C339" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D339" t="n">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C340" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D340" t="n">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C341" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D341" t="n">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C342" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D343" t="n">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D344" t="n">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C345" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D345" t="n">
+        <v>14988</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C346" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D346" t="n">
+        <v>11807</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C347" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D347" t="n">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C349" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C350" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D350" t="n">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C351" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D351" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C352" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D352" t="n">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C353" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D353" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C354" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D354" t="n">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C355" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D355" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C356" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D356" t="n">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C357" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D357" t="n">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C358" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D358" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C359" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D359" t="n">
+        <v>12708</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C360" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D360" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C361" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D361" t="n">
+        <v>7413</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C362" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D362" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C363" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D363" t="n">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C364" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="D364" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C365" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D365" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C366" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C367" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D367" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C368" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D368" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C369" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D369" t="n">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C370" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C371" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C372" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D372" t="n">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C373" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D373" t="n">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C374" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D374" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C375" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D375" t="n">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C376" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D376" t="n">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C377" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D377" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C378" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D378" t="n">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C379" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D379" t="n">
+        <v>11811</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C380" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D380" t="n">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C381" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C382" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C383" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D383" t="n">
+        <v>6292</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C384" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D384" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C385" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D385" t="n">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C386" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D386" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C387" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D387" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C388" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D388" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D389" t="n">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C390" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D390" t="n">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C391" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D391" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C392" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D392" t="n">
+        <v>12732</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C393" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D393" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C394" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D394" t="n">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C395" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D395" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C396" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D396" t="n">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C397" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="D397" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C398" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D398" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C399" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C400" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D400" t="n">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C401" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D401" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C402" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D402" t="n">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C403" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C404" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C405" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D405" t="n">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C406" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D406" t="n">
+        <v>5676</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C407" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D407" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C408" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C409" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D409" t="n">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C410" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D410" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C411" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D411" t="n">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C412" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D412" t="n">
+        <v>11812</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C413" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D413" t="n">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C414" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C415" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C416" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D416" t="n">
+        <v>6288</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C417" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D417" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C418" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C419" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D419" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C420" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D420" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C421" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D421" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C422" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D422" t="n">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C423" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D423" t="n">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C424" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D424" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C425" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D425" t="n">
+        <v>12732</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C426" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D426" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C427" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D427" t="n">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C428" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D428" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C429" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D429" t="n">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C430" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="D430" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C431" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D431" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C432" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C433" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D433" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C434" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D434" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C435" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D435" t="n">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C436" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D436" t="n">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C437" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D437" t="n">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C438" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D438" t="n">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C439" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D439" t="n">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C440" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D440" t="n">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C441" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C442" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D442" t="n">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C443" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D443" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C444" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D444" t="n">
+        <v>15003</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C445" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D445" t="n">
+        <v>11778</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C446" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D446" t="n">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C447" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D447" t="n">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C448" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D448" t="n">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C449" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D449" t="n">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C450" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D450" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C451" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D451" t="n">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C452" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D452" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C453" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D453" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C454" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D454" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C455" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D455" t="n">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C456" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D456" t="n">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C457" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D457" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C458" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D458" t="n">
+        <v>12944</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C459" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D459" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C460" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D460" t="n">
+        <v>7420</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C461" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D461" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C462" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D462" t="n">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C463" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D463" t="n">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C464" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D464" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C465" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D465" t="n">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C466" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D466" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C467" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D467" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C468" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D468" t="n">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C469" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D469" t="n">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C470" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C471" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D471" t="n">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C472" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D472" t="n">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C473" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D473" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C474" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C475" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D475" t="n">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C476" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D476" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C477" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D477" t="n">
+        <v>14977</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C478" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D478" t="n">
+        <v>11753</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C479" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D479" t="n">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C480" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C481" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C482" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D482" t="n">
+        <v>6324</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C483" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D483" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C484" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D484" t="n">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C485" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D485" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C486" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D486" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C487" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D487" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C488" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D488" t="n">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C489" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D489" t="n">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C490" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D490" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C491" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D491" t="n">
+        <v>12961</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C492" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D492" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C493" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D493" t="n">
+        <v>7420</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C494" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D494" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C495" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D495" t="n">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C496" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D496" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C497" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D497" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C498" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D498" t="n">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C499" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D499" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C500" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D500" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C501" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D501" t="n">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C502" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C503" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C504" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D504" t="n">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C505" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D505" t="n">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C506" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D506" t="n">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C507" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D507" t="n">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C508" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D508" t="n">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C509" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D509" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C510" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D510" t="n">
+        <v>14965</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C511" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D511" t="n">
+        <v>11756</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C512" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D512" t="n">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C513" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D513" t="n">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C514" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D514" t="n">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C515" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D515" t="n">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C516" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D516" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C517" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C518" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D518" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C519" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D519" t="n">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C520" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D520" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C521" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D521" t="n">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C522" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D522" t="n">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C523" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D523" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C524" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D524" t="n">
+        <v>12981</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C525" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D525" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C526" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D526" t="n">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C527" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D527" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C528" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D528" t="n">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C529" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="D529" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>mx-ag</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
+      <c r="C530" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D530" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>mx-bc</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
+      <c r="C531" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D531" t="n">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>mx-bs</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
+      <c r="C532" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D532" t="n">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>mx-cm</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
+      <c r="C533" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D533" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>mx-co</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
+      <c r="C534" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D534" t="n">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>mx-cl</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
+      <c r="C535" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>mx-cs</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
+      <c r="C536" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>mx-ch</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
+      <c r="C537" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D537" t="n">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>mx-df</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Ciudad de México</t>
+        </is>
+      </c>
+      <c r="C538" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D538" t="n">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>mx-dg</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="C539" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D539" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>mx-gj</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
+      <c r="C540" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D540" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>mx-gr</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
+      <c r="C541" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D541" t="n">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>mx-hg</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C542" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D542" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>mx-ja</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
+      <c r="C543" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D543" t="n">
+        <v>14965</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>mx-mx</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Estado de México</t>
+        </is>
+      </c>
+      <c r="C544" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D544" t="n">
+        <v>11838</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>mx-mi</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
+      <c r="C545" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D545" t="n">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>mx-mo</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
+      <c r="C546" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>mx-na</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="C547" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>mx-nl</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
+      <c r="C548" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D548" t="n">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>mx-oa</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
+      <c r="C549" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D549" t="n">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>mx-pu</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C550" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D550" t="n">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>mx-qt</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="C551" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D551" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>mx-qr</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
+      <c r="C552" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D552" t="n">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>mx-sl</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
+      <c r="C553" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D553" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>mx-si</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
+      <c r="C554" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D554" t="n">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>mx-so</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
+      <c r="C555" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D555" t="n">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>mx-tb</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
+      <c r="C556" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D556" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>mx-tm</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
+      <c r="C557" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D557" t="n">
+        <v>12981</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>mx-tl</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="C558" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D558" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>mx-ve</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
+      <c r="C559" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D559" t="n">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>mx-yu</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
+      <c r="C560" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D560" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>mx-za</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
+      <c r="C561" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D561" t="n">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>mx-3622</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C562" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="D562" t="n">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
